--- a/asistente_ladm_col/resources/excel/plantilla_estructura_excel.xlsx
+++ b/asistente_ladm_col/resources/excel/plantilla_estructura_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="predio" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
     <sheet name="tipoPredio" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="tipoDocumento" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="tipoInteresado" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="tipoGenero" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="tipoSexotipo" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="tipoDerecho" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="tipoFuenteAdministrativa" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="tipoDisponibleFuente" sheetId="11" state="visible" r:id="rId12"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t xml:space="preserve">departamento</t>
   </si>
@@ -56,9 +56,15 @@
     <t xml:space="preserve">avaluo</t>
   </si>
   <si>
+    <t xml:space="preserve">condicion predio</t>
+  </si>
+  <si>
     <t xml:space="preserve">tipo predio</t>
   </si>
   <si>
+    <t xml:space="preserve">direccion</t>
+  </si>
+  <si>
     <t xml:space="preserve">nombre1</t>
   </si>
   <si>
@@ -200,24 +206,21 @@
     <t xml:space="preserve">Persona_No_Natural</t>
   </si>
   <si>
+    <t xml:space="preserve">Femenino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masculino</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otro</t>
   </si>
   <si>
-    <t xml:space="preserve">Femenino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masculino</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descripción</t>
   </si>
   <si>
     <t xml:space="preserve">Derecho_Propiedad_Colectiva</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineria_Derecho</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuda_Propiedad</t>
   </si>
   <si>
@@ -227,79 +230,25 @@
     <t xml:space="preserve">Posesion</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usufructo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dominio</t>
   </si>
   <si>
     <t xml:space="preserve">Aplica para Propietario</t>
   </si>
   <si>
-    <t xml:space="preserve">Escritura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento_Identidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario_Predial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promesa_Compraventa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reglamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolucion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatuto_Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acta_Colindancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libros_Antiguo_Sistema_Registral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informe_Colindancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carta_Venta</t>
+    <t xml:space="preserve">Escritura_Publica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentencia_Judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acto_Administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento_Privado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin_Documento</t>
   </si>
   <si>
     <t xml:space="preserve">Disponible</t>
@@ -390,12 +339,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -405,10 +354,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,6 +395,12 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -463,10 +418,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,112 +431,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -613,22 +488,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +525,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -662,37 +537,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>4</v>
@@ -717,7 +592,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -758,13 +633,13 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="15"/>
@@ -772,31 +647,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -828,72 +703,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -925,62 +800,62 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -999,10 +874,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1012,22 +887,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1059,22 +929,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +963,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1106,53 +976,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
